--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H2">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I2">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J2">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.64356582611764</v>
+        <v>0.322404</v>
       </c>
       <c r="N2">
-        <v>3.64356582611764</v>
+        <v>0.967212</v>
       </c>
       <c r="O2">
-        <v>0.3553666846126458</v>
+        <v>0.02572530044727476</v>
       </c>
       <c r="P2">
-        <v>0.3553666846126458</v>
+        <v>0.02572530044727476</v>
       </c>
       <c r="Q2">
-        <v>122.9691269626452</v>
+        <v>10.8948398567</v>
       </c>
       <c r="R2">
-        <v>122.9691269626452</v>
+        <v>98.05355871029998</v>
       </c>
       <c r="S2">
-        <v>0.2099884056423186</v>
+        <v>0.01513327460813804</v>
       </c>
       <c r="T2">
-        <v>0.2099884056423186</v>
+        <v>0.01513327460813805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H3">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I3">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J3">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.60940943544683</v>
+        <v>3.646212666666667</v>
       </c>
       <c r="N3">
-        <v>6.60940943544683</v>
+        <v>10.938638</v>
       </c>
       <c r="O3">
-        <v>0.6446333153873544</v>
+        <v>0.2909390588970946</v>
       </c>
       <c r="P3">
-        <v>0.6446333153873544</v>
+        <v>0.2909390588970946</v>
       </c>
       <c r="Q3">
-        <v>223.0653559734329</v>
+        <v>123.2146719234389</v>
       </c>
       <c r="R3">
-        <v>223.0653559734329</v>
+        <v>1108.93204731095</v>
       </c>
       <c r="S3">
-        <v>0.3809178743631036</v>
+        <v>0.1711490476679507</v>
       </c>
       <c r="T3">
-        <v>0.3809178743631036</v>
+        <v>0.1711490476679507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.9419353101778</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H4">
-        <v>14.9419353101778</v>
+        <v>101.377525</v>
       </c>
       <c r="I4">
-        <v>0.2616109921017262</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J4">
-        <v>0.2616109921017262</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.64356582611764</v>
+        <v>0.059007</v>
       </c>
       <c r="N4">
-        <v>3.64356582611764</v>
+        <v>0.177021</v>
       </c>
       <c r="O4">
-        <v>0.3553666846126458</v>
+        <v>0.004708293952594701</v>
       </c>
       <c r="P4">
-        <v>0.3553666846126458</v>
+        <v>0.004708293952594701</v>
       </c>
       <c r="Q4">
-        <v>54.44192487222431</v>
+        <v>1.993994539225</v>
       </c>
       <c r="R4">
-        <v>54.44192487222431</v>
+        <v>17.945950853025</v>
       </c>
       <c r="S4">
-        <v>0.09296783092141549</v>
+        <v>0.002769721017116418</v>
       </c>
       <c r="T4">
-        <v>0.09296783092141549</v>
+        <v>0.002769721017116419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9419353101778</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H5">
-        <v>14.9419353101778</v>
+        <v>101.377525</v>
       </c>
       <c r="I5">
-        <v>0.2616109921017262</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J5">
-        <v>0.2616109921017262</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.60940943544683</v>
+        <v>8.504941333333333</v>
       </c>
       <c r="N5">
-        <v>6.60940943544683</v>
+        <v>25.514824</v>
       </c>
       <c r="O5">
-        <v>0.6446333153873544</v>
+        <v>0.6786273467030359</v>
       </c>
       <c r="P5">
-        <v>0.6446333153873544</v>
+        <v>0.6786273467030359</v>
       </c>
       <c r="Q5">
-        <v>98.75736822292531</v>
+        <v>287.4033008811778</v>
       </c>
       <c r="R5">
-        <v>98.75736822292531</v>
+        <v>2586.6297079306</v>
       </c>
       <c r="S5">
-        <v>0.1686431611803107</v>
+        <v>0.3992122080477818</v>
       </c>
       <c r="T5">
-        <v>0.1686431611803107</v>
+        <v>0.399212208047782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.36579404287518</v>
+        <v>14.943524</v>
       </c>
       <c r="H6">
-        <v>1.36579404287518</v>
+        <v>44.830572</v>
       </c>
       <c r="I6">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J6">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.64356582611764</v>
+        <v>0.322404</v>
       </c>
       <c r="N6">
-        <v>3.64356582611764</v>
+        <v>0.967212</v>
       </c>
       <c r="O6">
-        <v>0.3553666846126458</v>
+        <v>0.02572530044727476</v>
       </c>
       <c r="P6">
-        <v>0.3553666846126458</v>
+        <v>0.02572530044727476</v>
       </c>
       <c r="Q6">
-        <v>4.976360500135057</v>
+        <v>4.817851911696</v>
       </c>
       <c r="R6">
-        <v>4.976360500135057</v>
+        <v>43.360667205264</v>
       </c>
       <c r="S6">
-        <v>0.00849788912986435</v>
+        <v>0.006692147563435826</v>
       </c>
       <c r="T6">
-        <v>0.00849788912986435</v>
+        <v>0.006692147563435827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.36579404287518</v>
+        <v>14.943524</v>
       </c>
       <c r="H7">
-        <v>1.36579404287518</v>
+        <v>44.830572</v>
       </c>
       <c r="I7">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J7">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.60940943544683</v>
+        <v>3.646212666666667</v>
       </c>
       <c r="N7">
-        <v>6.60940943544683</v>
+        <v>10.938638</v>
       </c>
       <c r="O7">
-        <v>0.6446333153873544</v>
+        <v>0.2909390588970946</v>
       </c>
       <c r="P7">
-        <v>0.6446333153873544</v>
+        <v>0.2909390588970946</v>
       </c>
       <c r="Q7">
-        <v>9.027092033856286</v>
+        <v>54.48726649343735</v>
       </c>
       <c r="R7">
-        <v>9.027092033856286</v>
+        <v>490.3853984409361</v>
       </c>
       <c r="S7">
-        <v>0.01541512663053862</v>
+        <v>0.07568452380554268</v>
       </c>
       <c r="T7">
-        <v>0.01541512663053862</v>
+        <v>0.07568452380554269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.57171355887276</v>
+        <v>14.943524</v>
       </c>
       <c r="H8">
-        <v>2.57171355887276</v>
+        <v>44.830572</v>
       </c>
       <c r="I8">
-        <v>0.0450268671073612</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J8">
-        <v>0.0450268671073612</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.64356582611764</v>
+        <v>0.059007</v>
       </c>
       <c r="N8">
-        <v>3.64356582611764</v>
+        <v>0.177021</v>
       </c>
       <c r="O8">
-        <v>0.3553666846126458</v>
+        <v>0.004708293952594701</v>
       </c>
       <c r="P8">
-        <v>0.3553666846126458</v>
+        <v>0.004708293952594701</v>
       </c>
       <c r="Q8">
-        <v>9.370207637672163</v>
+        <v>0.8817725206680002</v>
       </c>
       <c r="R8">
-        <v>9.370207637672163</v>
+        <v>7.935952686012001</v>
       </c>
       <c r="S8">
-        <v>0.01600104848243714</v>
+        <v>0.001224809714754339</v>
       </c>
       <c r="T8">
-        <v>0.01600104848243714</v>
+        <v>0.001224809714754339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.57171355887276</v>
+        <v>14.943524</v>
       </c>
       <c r="H9">
-        <v>2.57171355887276</v>
+        <v>44.830572</v>
       </c>
       <c r="I9">
-        <v>0.0450268671073612</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J9">
-        <v>0.0450268671073612</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.60940943544683</v>
+        <v>8.504941333333333</v>
       </c>
       <c r="N9">
-        <v>6.60940943544683</v>
+        <v>25.514824</v>
       </c>
       <c r="O9">
-        <v>0.6446333153873544</v>
+        <v>0.6786273467030359</v>
       </c>
       <c r="P9">
-        <v>0.6446333153873544</v>
+        <v>0.6786273467030359</v>
       </c>
       <c r="Q9">
-        <v>16.99750786128017</v>
+        <v>127.0937949332587</v>
       </c>
       <c r="R9">
-        <v>16.99750786128017</v>
+        <v>1143.844154399328</v>
       </c>
       <c r="S9">
-        <v>0.02902581862492407</v>
+        <v>0.1765372713149692</v>
       </c>
       <c r="T9">
-        <v>0.02902581862492407</v>
+        <v>0.1765372713149692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.48598164784237</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H10">
-        <v>4.48598164784237</v>
+        <v>4.419547</v>
       </c>
       <c r="I10">
-        <v>0.07854284502508757</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J10">
-        <v>0.07854284502508757</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.64356582611764</v>
+        <v>0.322404</v>
       </c>
       <c r="N10">
-        <v>3.64356582611764</v>
+        <v>0.967212</v>
       </c>
       <c r="O10">
-        <v>0.3553666846126458</v>
+        <v>0.02572530044727476</v>
       </c>
       <c r="P10">
-        <v>0.3553666846126458</v>
+        <v>0.02572530044727476</v>
       </c>
       <c r="Q10">
-        <v>16.34496942866935</v>
+        <v>0.4749598769959999</v>
       </c>
       <c r="R10">
-        <v>16.34496942866935</v>
+        <v>4.274638892963999</v>
       </c>
       <c r="S10">
-        <v>0.02791151043661021</v>
+        <v>0.0006597341806734054</v>
       </c>
       <c r="T10">
-        <v>0.02791151043661021</v>
+        <v>0.0006597341806734054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.473182333333333</v>
+      </c>
+      <c r="H11">
+        <v>4.419547</v>
+      </c>
+      <c r="I11">
+        <v>0.02564534404663465</v>
+      </c>
+      <c r="J11">
+        <v>0.02564534404663465</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.646212666666667</v>
+      </c>
+      <c r="N11">
+        <v>10.938638</v>
+      </c>
+      <c r="O11">
+        <v>0.2909390588970946</v>
+      </c>
+      <c r="P11">
+        <v>0.2909390588970946</v>
+      </c>
+      <c r="Q11">
+        <v>5.371536084109556</v>
+      </c>
+      <c r="R11">
+        <v>48.343824756986</v>
+      </c>
+      <c r="S11">
+        <v>0.007461232262020093</v>
+      </c>
+      <c r="T11">
+        <v>0.007461232262020095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.473182333333333</v>
+      </c>
+      <c r="H12">
+        <v>4.419547</v>
+      </c>
+      <c r="I12">
+        <v>0.02564534404663465</v>
+      </c>
+      <c r="J12">
+        <v>0.02564534404663465</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.059007</v>
+      </c>
+      <c r="N12">
+        <v>0.177021</v>
+      </c>
+      <c r="O12">
+        <v>0.004708293952594701</v>
+      </c>
+      <c r="P12">
+        <v>0.004708293952594701</v>
+      </c>
+      <c r="Q12">
+        <v>0.08692806994299999</v>
+      </c>
+      <c r="R12">
+        <v>0.782352629487</v>
+      </c>
+      <c r="S12">
+        <v>0.0001207458182869804</v>
+      </c>
+      <c r="T12">
+        <v>0.0001207458182869804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.473182333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.419547</v>
+      </c>
+      <c r="I13">
+        <v>0.02564534404663465</v>
+      </c>
+      <c r="J13">
+        <v>0.02564534404663465</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.504941333333333</v>
+      </c>
+      <c r="N13">
+        <v>25.514824</v>
+      </c>
+      <c r="O13">
+        <v>0.6786273467030359</v>
+      </c>
+      <c r="P13">
+        <v>0.6786273467030359</v>
+      </c>
+      <c r="Q13">
+        <v>12.52932931830311</v>
+      </c>
+      <c r="R13">
+        <v>112.763963864728</v>
+      </c>
+      <c r="S13">
+        <v>0.01740363178565417</v>
+      </c>
+      <c r="T13">
+        <v>0.01740363178565417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.680112333333334</v>
+      </c>
+      <c r="H14">
+        <v>8.040337000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="J14">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.322404</v>
+      </c>
+      <c r="N14">
+        <v>0.967212</v>
+      </c>
+      <c r="O14">
+        <v>0.02572530044727476</v>
+      </c>
+      <c r="P14">
+        <v>0.02572530044727476</v>
+      </c>
+      <c r="Q14">
+        <v>0.864078936716</v>
+      </c>
+      <c r="R14">
+        <v>7.776710430444001</v>
+      </c>
+      <c r="S14">
+        <v>0.001200232771148959</v>
+      </c>
+      <c r="T14">
+        <v>0.001200232771148959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.680112333333334</v>
+      </c>
+      <c r="H15">
+        <v>8.040337000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="J15">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.646212666666667</v>
+      </c>
+      <c r="N15">
+        <v>10.938638</v>
+      </c>
+      <c r="O15">
+        <v>0.2909390588970946</v>
+      </c>
+      <c r="P15">
+        <v>0.2909390588970946</v>
+      </c>
+      <c r="Q15">
+        <v>9.772259537889557</v>
+      </c>
+      <c r="R15">
+        <v>87.95033584100602</v>
+      </c>
+      <c r="S15">
+        <v>0.0135739753015216</v>
+      </c>
+      <c r="T15">
+        <v>0.0135739753015216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.680112333333334</v>
+      </c>
+      <c r="H16">
+        <v>8.040337000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="J16">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.059007</v>
+      </c>
+      <c r="N16">
+        <v>0.177021</v>
+      </c>
+      <c r="O16">
+        <v>0.004708293952594701</v>
+      </c>
+      <c r="P16">
+        <v>0.004708293952594701</v>
+      </c>
+      <c r="Q16">
+        <v>0.158145388453</v>
+      </c>
+      <c r="R16">
+        <v>1.423308496077</v>
+      </c>
+      <c r="S16">
+        <v>0.0002196689095891696</v>
+      </c>
+      <c r="T16">
+        <v>0.0002196689095891696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.48598164784237</v>
-      </c>
-      <c r="H11">
-        <v>4.48598164784237</v>
-      </c>
-      <c r="I11">
-        <v>0.07854284502508757</v>
-      </c>
-      <c r="J11">
-        <v>0.07854284502508757</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.60940943544683</v>
-      </c>
-      <c r="N11">
-        <v>6.60940943544683</v>
-      </c>
-      <c r="O11">
-        <v>0.6446333153873544</v>
-      </c>
-      <c r="P11">
-        <v>0.6446333153873544</v>
-      </c>
-      <c r="Q11">
-        <v>29.64968943049068</v>
-      </c>
-      <c r="R11">
-        <v>29.64968943049068</v>
-      </c>
-      <c r="S11">
-        <v>0.05063133458847737</v>
-      </c>
-      <c r="T11">
-        <v>0.05063133458847737</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.680112333333334</v>
+      </c>
+      <c r="H17">
+        <v>8.040337000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="J17">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.504941333333333</v>
+      </c>
+      <c r="N17">
+        <v>25.514824</v>
+      </c>
+      <c r="O17">
+        <v>0.6786273467030359</v>
+      </c>
+      <c r="P17">
+        <v>0.6786273467030359</v>
+      </c>
+      <c r="Q17">
+        <v>22.79419816174311</v>
+      </c>
+      <c r="R17">
+        <v>205.147783455688</v>
+      </c>
+      <c r="S17">
+        <v>0.03166185687822108</v>
+      </c>
+      <c r="T17">
+        <v>0.03166185687822108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.555109333333333</v>
+      </c>
+      <c r="H18">
+        <v>13.665328</v>
+      </c>
+      <c r="I18">
+        <v>0.07929591835319542</v>
+      </c>
+      <c r="J18">
+        <v>0.07929591835319544</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.322404</v>
+      </c>
+      <c r="N18">
+        <v>0.967212</v>
+      </c>
+      <c r="O18">
+        <v>0.02572530044727476</v>
+      </c>
+      <c r="P18">
+        <v>0.02572530044727476</v>
+      </c>
+      <c r="Q18">
+        <v>1.468585469504</v>
+      </c>
+      <c r="R18">
+        <v>13.217269225536</v>
+      </c>
+      <c r="S18">
+        <v>0.002039911323878521</v>
+      </c>
+      <c r="T18">
+        <v>0.002039911323878521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.555109333333333</v>
+      </c>
+      <c r="H19">
+        <v>13.665328</v>
+      </c>
+      <c r="I19">
+        <v>0.07929591835319542</v>
+      </c>
+      <c r="J19">
+        <v>0.07929591835319544</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.646212666666667</v>
+      </c>
+      <c r="N19">
+        <v>10.938638</v>
+      </c>
+      <c r="O19">
+        <v>0.2909390588970946</v>
+      </c>
+      <c r="P19">
+        <v>0.2909390588970946</v>
+      </c>
+      <c r="Q19">
+        <v>16.60889734925156</v>
+      </c>
+      <c r="R19">
+        <v>149.480076143264</v>
+      </c>
+      <c r="S19">
+        <v>0.02307027986005953</v>
+      </c>
+      <c r="T19">
+        <v>0.02307027986005954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.555109333333333</v>
+      </c>
+      <c r="H20">
+        <v>13.665328</v>
+      </c>
+      <c r="I20">
+        <v>0.07929591835319542</v>
+      </c>
+      <c r="J20">
+        <v>0.07929591835319544</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.059007</v>
+      </c>
+      <c r="N20">
+        <v>0.177021</v>
+      </c>
+      <c r="O20">
+        <v>0.004708293952594701</v>
+      </c>
+      <c r="P20">
+        <v>0.004708293952594701</v>
+      </c>
+      <c r="Q20">
+        <v>0.268783336432</v>
+      </c>
+      <c r="R20">
+        <v>2.419050027888</v>
+      </c>
+      <c r="S20">
+        <v>0.0003733484928477931</v>
+      </c>
+      <c r="T20">
+        <v>0.0003733484928477932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.555109333333333</v>
+      </c>
+      <c r="H21">
+        <v>13.665328</v>
+      </c>
+      <c r="I21">
+        <v>0.07929591835319542</v>
+      </c>
+      <c r="J21">
+        <v>0.07929591835319544</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.504941333333333</v>
+      </c>
+      <c r="N21">
+        <v>25.514824</v>
+      </c>
+      <c r="O21">
+        <v>0.6786273467030359</v>
+      </c>
+      <c r="P21">
+        <v>0.6786273467030359</v>
+      </c>
+      <c r="Q21">
+        <v>38.74093764691911</v>
+      </c>
+      <c r="R21">
+        <v>348.668438822272</v>
+      </c>
+      <c r="S21">
+        <v>0.05381237867640958</v>
+      </c>
+      <c r="T21">
+        <v>0.05381237867640959</v>
       </c>
     </row>
   </sheetData>
